--- a/src/test/testFiles/Students1.xlsx
+++ b/src/test/testFiles/Students1.xlsx
@@ -205,141 +205,142 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D9" activeCellId="0" pane="topLeft" sqref="D9"/>
+      <selection activeCell="H15" activeCellId="0" pane="topLeft" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.4285714285714"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.7142857142857"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8622448979592"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1" t="n">
+        <v>7640001</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>7640001</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="n">
+        <v>7640002</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>7640002</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="n">
+        <v>7640003</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>7640003</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="4">
+      <c r="A4" s="1" t="n">
+        <v>7640005</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>7640005</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
+      <c r="A5" s="1" t="n">
+        <v>7640006</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>7640006</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+      <c r="A6" s="1" t="n">
+        <v>7640007</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>7640007</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="7">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="n">
+        <v>7640008</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>7640008</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="8">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
+      <c r="A8" s="1" t="n">
+        <v>7640009</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>7640009</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="1" t="n">
+        <v>9999999</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>9999999</v>
       </c>
     </row>
   </sheetData>
